--- a/file/temp/学工_1.3_统计.xlsx
+++ b/file/temp/学工_1.3_统计.xlsx
@@ -23972,7 +23972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N282"/>
+  <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>字段中文名</t>
+          <t>字段中文名ccc</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -24018,12 +24018,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>标准表</t>
+          <t>表/视图名称</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>标准字段</t>
+          <t>字段名</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -24049,6 +24049,16 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>标准修订状态</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>数据元素</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>数据元素分类</t>
         </is>
       </c>
     </row>
@@ -24083,7 +24093,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -24207,6 +24217,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>考生号</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -24265,6 +24285,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>通知书号</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -24617,6 +24647,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>照片</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -24800,6 +24840,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>体重</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -24858,6 +24908,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>身高</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -24974,6 +25034,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>病史</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -25292,6 +25362,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>生源地</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -25822,6 +25902,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>户口所在地</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25885,6 +25975,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>银行开户行</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>财务管理类</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -25943,6 +26043,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>银行卡号</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>财务管理类</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -26001,6 +26111,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>校园卡卡号</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>财务管理类</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26059,6 +26179,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>乘车区间</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26124,6 +26254,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>健康状况</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26189,6 +26329,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>学生当前状态</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26319,6 +26469,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>高考考生类别</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>教学管理类</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -26379,6 +26539,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>高考总分</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26439,6 +26609,16 @@
           <t>增加字段</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>科目1分数</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26499,6 +26679,16 @@
           <t>增加字段</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>科目2分数</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26559,6 +26749,16 @@
           <t>增加字段</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>科目3分数</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -26619,6 +26819,16 @@
           <t>增加字段</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>科目4分数</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -26679,6 +26889,16 @@
           <t>增加字段</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>科目5分数</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -26737,6 +26957,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>入学年月</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -26795,6 +27025,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>入学前单位</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -26860,6 +27100,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>入学方式</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -26925,6 +27175,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>入学季节</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>教学管理类</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -26990,6 +27250,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>培养方式</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>教学管理类</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -27053,6 +27323,11 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>所属学院</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -27116,6 +27391,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>校内专业</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>人员类</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -27174,6 +27459,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>学制</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>教学管理类</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -27237,6 +27532,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>班号</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -27295,6 +27600,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>年级名称</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>教学管理类</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -27360,6 +27675,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>学生类别</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -27425,6 +27750,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>培养层次</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>教学管理类</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -27483,6 +27818,16 @@
           <t>增加字段</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>教职工号</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -27657,6 +28002,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>宿舍号</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -27715,6 +28070,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>校区号</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>机构类</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -27893,6 +28258,11 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>委培单位名称</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -27951,6 +28321,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>手机号码</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -28009,6 +28389,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>电子信箱</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -28067,6 +28457,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>电话</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -28125,6 +28525,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>QQ号</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -28183,6 +28593,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>微信号</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -28241,6 +28661,11 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>在校通讯地址</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -28299,6 +28724,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>邮政编码</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -28359,6 +28794,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>行政区划</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -28417,6 +28862,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>详细地址</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -28475,6 +28930,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>邮政编码</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -28533,6 +28998,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>电话</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>位置类</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -28591,6 +29066,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>预计毕业日期</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -28649,6 +29134,16 @@
           <t>无修订</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>实际毕业日期</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>学生、教师管理类</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -28751,7 +29246,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -32895,7 +33390,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -33667,7 +34162,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -34633,7 +35128,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -34753,7 +35248,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -35234,7 +35729,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -35510,7 +36005,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -39193,7 +39688,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>删除</t>
+          <t>非业务数据</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -39506,10 +40001,6 @@
         </is>
       </c>
     </row>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
